--- a/backend/app/Exports/Template/invoice.xlsx
+++ b/backend/app/Exports/Template/invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\kokolab\backend\app\Exports\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AB372B-32AB-4062-8541-95BD735944AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465EF9F-1F42-47EB-B613-E4DBE2E0894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -464,70 +464,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="16" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,8 +486,59 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -577,8 +577,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -968,7 +968,7 @@
   <dimension ref="A1:Q825"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="N26" sqref="N26:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -990,59 +990,59 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:17" ht="32.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="8"/>
@@ -1055,12 +1055,12 @@
       <c r="M4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1082,23 +1082,23 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="L7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L9" s="7" t="s">
         <v>8</v>
       </c>
@@ -1116,9 +1116,9 @@
         <v>5</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="L10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1130,34 +1130,35 @@
       <c r="D11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="D12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="13"/>
     </row>
+    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="35" t="str">
+      <c r="B14" s="33" t="str">
         <f>"※お届け先の変更・らくらく定期便のスキップ・停止などを希望される場合は、次回発送予定日の10日前"&amp;IF(E11&lt;&gt;"",TEXT(E11-10,"（yyyy年mm月dd日）"),"")&amp;"までにご連絡下さい。
 ※返品・交換などについては、こちらのURLからご確認お願い致します。https://kokorokarada.net/tradelaw.html
 ※コンビニ後払い用紙は、同梱されていない場合は、別送でのお届けとなります。"</f>
@@ -1165,15 +1166,15 @@
 ※返品・交換などについては、こちらのURLからご確認お願い致します。https://kokorokarada.net/tradelaw.html
 ※コンビニ後払い用紙は、同梱されていない場合は、別送でのお届けとなります。</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="15"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -1186,16 +1187,16 @@
       <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
       <c r="L15" s="15"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -1208,16 +1209,16 @@
       <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="15"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
@@ -1228,16 +1229,16 @@
     </row>
     <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
       <c r="L17" s="15"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
@@ -1248,16 +1249,16 @@
       <c r="A18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="15"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
@@ -1270,16 +1271,16 @@
       <c r="A19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="15"/>
       <c r="M19" s="18" t="s">
         <v>0</v>
@@ -1294,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,22 +1348,22 @@
         <v>11</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="40" t="s">
+      <c r="F21" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="8"/>
@@ -1379,392 +1380,392 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="20"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="20"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="22"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="8"/>
       <c r="P22" s="31"/>
     </row>
     <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="21"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="21"/>
+      <c r="N23" s="29"/>
       <c r="O23" s="8"/>
       <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="23"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
       <c r="K24" s="19"/>
-      <c r="L24" s="23"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="19"/>
-      <c r="N24" s="21"/>
+      <c r="N24" s="29"/>
       <c r="O24" s="19"/>
       <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="21"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="19"/>
-      <c r="N25" s="21"/>
+      <c r="N25" s="29"/>
       <c r="O25" s="19"/>
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="23"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
       <c r="K26" s="19"/>
-      <c r="L26" s="23"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="19"/>
-      <c r="N26" s="21"/>
+      <c r="N26" s="29"/>
       <c r="O26" s="19"/>
       <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="21"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="19"/>
-      <c r="L27" s="21"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="21"/>
+      <c r="N27" s="29"/>
       <c r="O27" s="19"/>
       <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="23"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
       <c r="K28" s="19"/>
-      <c r="L28" s="23"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="19"/>
-      <c r="N28" s="21"/>
+      <c r="N28" s="29"/>
       <c r="O28" s="19"/>
       <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="21"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="19"/>
-      <c r="L29" s="21"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="19"/>
-      <c r="N29" s="21"/>
+      <c r="N29" s="29"/>
       <c r="O29" s="19"/>
       <c r="P29" s="32"/>
     </row>
     <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="23"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="19"/>
-      <c r="N30" s="21"/>
+      <c r="N30" s="29"/>
       <c r="O30" s="19"/>
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="21"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="21"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="21"/>
+      <c r="N31" s="29"/>
       <c r="O31" s="19"/>
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="23"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="19"/>
-      <c r="N32" s="21"/>
+      <c r="N32" s="29"/>
       <c r="O32" s="19"/>
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="19"/>
-      <c r="C33" s="21"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="21"/>
+      <c r="L33" s="29"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="21"/>
+      <c r="N33" s="29"/>
       <c r="O33" s="19"/>
       <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="20"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="20"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="22"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="8"/>
       <c r="P34" s="31"/>
     </row>
     <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="21"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
       <c r="K35" s="19"/>
-      <c r="L35" s="21"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="19"/>
-      <c r="N35" s="21"/>
+      <c r="N35" s="29"/>
       <c r="O35" s="19"/>
       <c r="P35" s="32"/>
     </row>
     <row r="36" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" s="33">
-        <v>0</v>
-      </c>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
+      <c r="K36" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21">
+        <v>0</v>
+      </c>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
     </row>
     <row r="37" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="33">
-        <v>0</v>
-      </c>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
+      <c r="K37" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21">
+        <v>0</v>
+      </c>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
     </row>
     <row r="38" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="33">
-        <v>0</v>
-      </c>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
+      <c r="K38" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21">
+        <v>0</v>
+      </c>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
     </row>
     <row r="39" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="33">
-        <v>0</v>
-      </c>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
+      <c r="K39" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="21">
+        <v>0</v>
+      </c>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
     </row>
     <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" s="33">
-        <v>0</v>
-      </c>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
+      <c r="K40" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="21">
+        <v>0</v>
+      </c>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
     </row>
     <row r="41" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="33">
-        <v>0</v>
-      </c>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
+      <c r="K41" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="21">
+        <v>0</v>
+      </c>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
     </row>
     <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" s="33">
-        <v>0</v>
-      </c>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
+      <c r="K42" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21">
+        <v>0</v>
+      </c>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
     </row>
     <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="33">
-        <v>0</v>
-      </c>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
+      <c r="K43" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="21">
+        <v>0</v>
+      </c>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
     </row>
     <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -1817,12 +1818,12 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1858,78 +1859,78 @@
       <c r="A46" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
       <c r="P46" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
       <c r="P49" s="3" t="s">
         <v>0</v>
       </c>
@@ -1938,20 +1939,20 @@
       <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
       <c r="P50" s="3" t="s">
         <v>0</v>
       </c>
@@ -1960,20 +1961,20 @@
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
       <c r="P51" s="3" t="s">
         <v>0</v>
       </c>
@@ -2754,24 +2755,41 @@
     <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B46:O51"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:J35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:J33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:J27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:J25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A7:F8"/>
     <mergeCell ref="P22:P23"/>
     <mergeCell ref="M42:P42"/>
     <mergeCell ref="B14:K19"/>
@@ -2788,41 +2806,24 @@
     <mergeCell ref="M40:P40"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A7:F8"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:J25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:J27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:J33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:J35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B46:O51"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="J39:L39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/backend/app/Exports/Template/invoice.xlsx
+++ b/backend/app/Exports/Template/invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\kokolab\backend\app\Exports\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomohide\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465EF9F-1F42-47EB-B613-E4DBE2E0894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C8A0E-8A3C-4B35-9D5A-A7F0A8811995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t/>
   </si>
@@ -120,6 +121,16 @@
   </si>
   <si>
     <t>お問合せ：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お支払い方法</t>
+    <rPh sb="1" eb="3">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -413,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -453,69 +464,67 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="16" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,13 +540,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -577,8 +586,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -968,7 +977,7 @@
   <dimension ref="A1:Q825"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26:N27"/>
+      <selection activeCell="B14" sqref="B14:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -990,55 +999,55 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:17" ht="32.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="39" t="s">
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="37" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1055,12 +1064,12 @@
       <c r="M4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1082,23 +1091,23 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="L7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1116,9 +1125,9 @@
         <v>5</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="L10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1130,35 +1139,45 @@
       <c r="D11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
       <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="D12" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+    </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="33" t="str">
+      <c r="B14" s="30" t="str">
         <f>"※お届け先の変更・らくらく定期便のスキップ・停止などを希望される場合は、次回発送予定日の10日前"&amp;IF(E11&lt;&gt;"",TEXT(E11-10,"（yyyy年mm月dd日）"),"")&amp;"までにご連絡下さい。
 ※返品・交換などについては、こちらのURLからご確認お願い致します。https://kokorokarada.net/tradelaw.html
 ※コンビニ後払い用紙は、同梱されていない場合は、別送でのお届けとなります。"</f>
@@ -1166,19 +1185,19 @@
 ※返品・交換などについては、こちらのURLからご確認お願い致します。https://kokorokarada.net/tradelaw.html
 ※コンビニ後払い用紙は、同梱されていない場合は、別送でのお届けとなります。</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="16" t="s">
         <v>0</v>
       </c>
@@ -1187,20 +1206,20 @@
       <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="16" t="s">
         <v>0</v>
       </c>
@@ -1209,60 +1228,60 @@
       <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
       <c r="P16" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="16" t="s">
         <v>0</v>
       </c>
@@ -1271,73 +1290,47 @@
       <c r="A19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="18" t="s">
+      <c r="M19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17" t="s">
         <v>0</v>
       </c>
       <c r="P19" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="16"/>
     </row>
     <row r="21" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -1348,22 +1341,22 @@
         <v>11</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="37" t="s">
+      <c r="F21" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="8"/>
@@ -1380,392 +1373,392 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="24"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="24"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="30"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="31"/>
+      <c r="P22" s="19"/>
     </row>
     <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="29"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="29"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="29"/>
+      <c r="N23" s="22"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="32"/>
+      <c r="P23" s="20"/>
     </row>
     <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="32"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="20"/>
     </row>
     <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="32"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="20"/>
     </row>
     <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="32"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="32"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="20"/>
     </row>
     <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="32"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="20"/>
     </row>
     <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="32"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="20"/>
     </row>
     <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="32"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="20"/>
     </row>
     <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="32"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="20"/>
     </row>
     <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="32"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="20"/>
     </row>
     <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="32"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="20"/>
     </row>
     <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="24"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="30"/>
+      <c r="N34" s="23"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="31"/>
+      <c r="P34" s="19"/>
     </row>
     <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="32"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="20"/>
     </row>
     <row r="36" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" s="21">
-        <v>0</v>
-      </c>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
+      <c r="K36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="28">
+        <v>0</v>
+      </c>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
     </row>
     <row r="37" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="21">
-        <v>0</v>
-      </c>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
+      <c r="K37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="28">
+        <v>0</v>
+      </c>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
     </row>
     <row r="38" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="21">
-        <v>0</v>
-      </c>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
+      <c r="K38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="28">
+        <v>0</v>
+      </c>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
     </row>
     <row r="39" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="21">
-        <v>0</v>
-      </c>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
+      <c r="K39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="28">
+        <v>0</v>
+      </c>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
     </row>
     <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" s="21">
-        <v>0</v>
-      </c>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
+      <c r="K40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="28">
+        <v>0</v>
+      </c>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
     </row>
     <row r="41" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L41" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="21">
-        <v>0</v>
-      </c>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
+      <c r="K41" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="28">
+        <v>0</v>
+      </c>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
     </row>
     <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" s="21">
-        <v>0</v>
-      </c>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
+      <c r="K42" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="28">
+        <v>0</v>
+      </c>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
     </row>
     <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="21">
-        <v>0</v>
-      </c>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
+      <c r="K43" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="28">
+        <v>0</v>
+      </c>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
     </row>
     <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -1818,12 +1811,12 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1859,78 +1852,78 @@
       <c r="A46" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
       <c r="P46" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
       <c r="P49" s="3" t="s">
         <v>0</v>
       </c>
@@ -1939,20 +1932,20 @@
       <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
       <c r="P50" s="3" t="s">
         <v>0</v>
       </c>
@@ -1961,20 +1954,20 @@
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
       <c r="P51" s="3" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2747,9 @@
     <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="71">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="E34:J35"/>
@@ -2775,55 +2770,55 @@
     <mergeCell ref="E28:J29"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="N28:N29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:J27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:J25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="N24:N25"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="A7:F8"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
     <mergeCell ref="B14:K19"/>
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="M40:P40"/>
     <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="M39:P39"/>
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:J25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:J27"/>
+    <mergeCell ref="L26:L27"/>
     <mergeCell ref="B46:O51"/>
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="M41:P41"/>
     <mergeCell ref="J42:L42"/>
     <mergeCell ref="J43:L43"/>
     <mergeCell ref="M43:P43"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="N26:N27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
